--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3775" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="4719" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
 Code</t>
   </si>
   <si>
-    <t>0x01(invalid address register 
-or quantity)
+    <t>0x01(error check CRC)
 0x02(invalid function code)
-0x03(error check CRC)</t>
+0x03(invalid address register 
+or quantity)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4719" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="5663" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,6 @@
     <t>Start register address</t>
   </si>
   <si>
-    <t>the number of register</t>
-  </si>
-  <si>
-    <t>data byte</t>
-  </si>
-  <si>
-    <t>data range</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>0x03</t>
   </si>
   <si>
@@ -170,6 +158,18 @@
 0x02(invalid function code)
 0x03(invalid address register 
 or quantity)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data range</t>
+  </si>
+  <si>
+    <t>Data byte</t>
+  </si>
+  <si>
+    <t>The number of register</t>
   </si>
 </sst>
 </file>
@@ -516,16 +516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -539,24 +539,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -565,18 +565,18 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="153.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -585,18 +585,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -605,18 +605,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -625,18 +625,18 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="79.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -645,18 +645,18 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -665,18 +665,18 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -685,18 +685,18 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -705,55 +705,55 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="116.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -763,13 +763,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -777,13 +777,13 @@
     </row>
     <row r="14" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
@@ -791,7 +791,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5663" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="6607" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>function code</t>
   </si>
@@ -119,9 +119,6 @@
 Default: 0x1A (26 DEC))</t>
   </si>
   <si>
-    <t>1.Only address and baud rate can be changed.</t>
-  </si>
-  <si>
     <t>Read the Baud rate
 Default:7(115200)</t>
   </si>
@@ -170,6 +167,26 @@
   </si>
   <si>
     <t>The number of register</t>
+  </si>
+  <si>
+    <t>3."AT+ID=x" Setup slave address. 0&lt; x &lt;256</t>
+  </si>
+  <si>
+    <t>1.Only address and baud rate can be changed</t>
+  </si>
+  <si>
+    <t>4."AT+BR=x" Setup baud rate. 0&lt;= x &lt;= 7.</t>
+  </si>
+  <si>
+    <t>Value x:
+0(1200)
+1 (2400)
+2 (4800)
+3 (9600)
+4 (19200)
+5 (38400)
+6 (57600)
+7 (115200)</t>
   </si>
 </sst>
 </file>
@@ -514,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -539,16 +556,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -588,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -625,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -753,7 +770,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -763,13 +780,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -777,13 +794,13 @@
     </row>
     <row r="14" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
@@ -791,7 +808,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -801,7 +818,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -809,12 +826,35 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6607" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="7551" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>function code</t>
   </si>
@@ -187,6 +187,24 @@
 5 (38400)
 6 (57600)
 7 (115200)</t>
+  </si>
+  <si>
+    <t>5."AT+CLT= +x". Temperature calibration (increase)</t>
+  </si>
+  <si>
+    <t>6."AT+CLT= -x". Temperature calibration (reduce)</t>
+  </si>
+  <si>
+    <t>7."AT+CLH= +x". Humidity calibration (increase)</t>
+  </si>
+  <si>
+    <t>0&lt;= x &lt;=999</t>
+  </si>
+  <si>
+    <t>0&lt;= x &lt;=9</t>
+  </si>
+  <si>
+    <t>8."AT+CLH= -x". Humidity calibration (reduce)</t>
   </si>
 </sst>
 </file>
@@ -531,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="91" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -847,8 +865,56 @@
         <v>44</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7551" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="9439" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>function code</t>
   </si>
@@ -123,9 +123,6 @@
 Default:7(115200)</t>
   </si>
   <si>
-    <t>2."AT+RESET" Reset slave address and baud rate to default</t>
-  </si>
-  <si>
     <t xml:space="preserve">0(not display)
 1( ° C)
 2( ° K)
@@ -151,12 +148,6 @@
 Code</t>
   </si>
   <si>
-    <t>0x01(error check CRC)
-0x02(invalid function code)
-0x03(invalid address register 
-or quantity)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -169,13 +160,7 @@
     <t>The number of register</t>
   </si>
   <si>
-    <t>3."AT+ID=x" Setup slave address. 0&lt; x &lt;256</t>
-  </si>
-  <si>
     <t>1.Only address and baud rate can be changed</t>
-  </si>
-  <si>
-    <t>4."AT+BR=x" Setup baud rate. 0&lt;= x &lt;= 7.</t>
   </si>
   <si>
     <t>Value x:
@@ -189,22 +174,53 @@
 7 (115200)</t>
   </si>
   <si>
-    <t>5."AT+CLT= +x". Temperature calibration (increase)</t>
-  </si>
-  <si>
-    <t>6."AT+CLT= -x". Temperature calibration (reduce)</t>
-  </si>
-  <si>
-    <t>7."AT+CLH= +x". Humidity calibration (increase)</t>
-  </si>
-  <si>
     <t>0&lt;= x &lt;=999</t>
   </si>
   <si>
     <t>0&lt;= x &lt;=9</t>
   </si>
   <si>
-    <t>8."AT+CLH= -x". Humidity calibration (reduce)</t>
+    <t>0x01(error check CRC)
+0x02(invalid function code)
+0x03(invalid address register 
+or quantity)
+0x04(error I2C Sensor)</t>
+  </si>
+  <si>
+    <t>6."AT+CLT=+x". Temperature calibration (increase)</t>
+  </si>
+  <si>
+    <t>7."AT+CLT=-x". Temperature calibration (reduce)</t>
+  </si>
+  <si>
+    <t>8."AT+CLH=+x". Humidity calibration (increase)</t>
+  </si>
+  <si>
+    <t>9."AT+CLH=-x". Humidity calibration (reduce)</t>
+  </si>
+  <si>
+    <t>3."AT+RESET". Reset slave address and baud rate to default</t>
+  </si>
+  <si>
+    <t>4."AT+ID=x". Setup slave address. 0&lt; x &lt;256</t>
+  </si>
+  <si>
+    <t>5."AT+BR=x". Setup baud rate. 0&lt;= x &lt;= 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response:
+IF= a, b, c, d
+Parameter:
+a - ID
+b - Baud Rate
+c - Calib Temperature
+d - Calib Humidity </t>
+  </si>
+  <si>
+    <t>*Note: Command not space</t>
+  </si>
+  <si>
+    <t>2."AT+IF?". Information Slave</t>
   </si>
 </sst>
 </file>
@@ -240,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -261,6 +277,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="91" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="127" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -561,7 +583,7 @@
     <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -574,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -660,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -787,24 +809,24 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -812,115 +834,136 @@
     </row>
     <row r="14" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="118" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="12">
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F15:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9439" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="10383" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,11 @@
 d - Calib Humidity </t>
   </si>
   <si>
-    <t>*Note: Command not space</t>
-  </si>
-  <si>
     <t>2."AT+IF?". Information Slave</t>
+  </si>
+  <si>
+    <t>*Note: Command not space
+Response: SUCCESS or ERROR</t>
   </si>
 </sst>
 </file>
@@ -256,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -290,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="127" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="127" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -854,13 +858,13 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="11" t="s">
-        <v>52</v>
+      <c r="F15" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="118" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -952,18 +956,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F15:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10383" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="11326" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
-  <si>
-    <t>function code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Start register address</t>
   </si>
@@ -133,9 +130,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>0x1A</t>
   </si>
   <si>
     <t>Function Code</t>
@@ -220,8 +214,22 @@
     <t>2."AT+IF?". Information Slave</t>
   </si>
   <si>
-    <t>*Note: Command not space
-Response: SUCCESS or ERROR</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>2 Byte CRC</t>
+  </si>
+  <si>
+    <t>Function code</t>
+  </si>
+  <si>
+    <t>*Note
++ Command not space
++ Response: SUCCESS or ERROR
++ Return value = Measured value  '+' or '-' x</t>
   </si>
 </sst>
 </file>
@@ -266,10 +274,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -278,22 +298,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="127" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="112" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -587,137 +595,137 @@
     <col min="2" max="2" width="17.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="153.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="79.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -726,18 +734,18 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -746,18 +754,18 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -766,55 +774,55 @@
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="116.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -823,136 +831,140 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="12" t="s">
-        <v>53</v>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="118" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11326" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="14158" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>Temperature Value</t>
-  </si>
-  <si>
     <t>0x0003</t>
-  </si>
-  <si>
-    <t>Temperature Uint</t>
   </si>
   <si>
     <t>0x0004</t>
@@ -75,9 +69,6 @@
  3 (#.###)</t>
   </si>
   <si>
-    <t>Temperature decimal points</t>
-  </si>
-  <si>
     <t>0x0005</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
   </si>
   <si>
     <t>0x0007</t>
-  </si>
-  <si>
-    <t>Humidity value</t>
   </si>
   <si>
     <t>0(not display)
@@ -174,13 +162,6 @@
     <t>0&lt;= x &lt;=9</t>
   </si>
   <si>
-    <t>0x01(error check CRC)
-0x02(invalid function code)
-0x03(invalid address register 
-or quantity)
-0x04(error I2C Sensor)</t>
-  </si>
-  <si>
     <t>6."AT+CLT=+x". Temperature calibration (increase)</t>
   </si>
   <si>
@@ -230,6 +211,25 @@
 + Command not space
 + Response: SUCCESS or ERROR
 + Return value = Measured value  '+' or '-' x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal points temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value temperature </t>
+  </si>
+  <si>
+    <t>Unit temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value humidity </t>
+  </si>
+  <si>
+    <t>0x01(error check CRC)
+0x02(invalid function code)
+0x03(invalid address register 
+or quantity)
+0x04(error I2C or Sensor)</t>
   </si>
 </sst>
 </file>
@@ -292,16 +292,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="112" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -602,22 +602,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="153.69999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="79.3" customHeight="1" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -714,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.05" x14ac:dyDescent="0.3">
@@ -745,19 +745,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58.1" x14ac:dyDescent="0.3">
@@ -765,30 +765,30 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -797,18 +797,18 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="116.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -817,154 +817,154 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="11" t="s">
-        <v>55</v>
+      <c r="F15" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="118" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="133.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Mudbus RTU Level Sensor HS300x.xlsx
+++ b/Mudbus RTU Level Sensor HS300x.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14158" yWindow="0" windowWidth="22290" windowHeight="9898"/>
+    <workbookView xWindow="15102" yWindow="0" windowWidth="22290" windowHeight="9898"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="112" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
